--- a/forms/NIH TRDF Levin Anat Budget Worksheet3.xlsx
+++ b/forms/NIH TRDF Levin Anat Budget Worksheet3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anat\Dropbox (Technion Dropbox)\Git\NIHMarch25\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0BC5E4-B9AB-46D7-B648-FCA04E9F11CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADB9D35-A83B-441E-A3F7-DF5E0746604F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="864" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="1" r:id="rId1"/>
@@ -197,9 +197,6 @@
     <t>Check</t>
   </si>
   <si>
-    <t>Computer</t>
-  </si>
-  <si>
     <t>Prof. Anat Levin</t>
   </si>
   <si>
@@ -207,6 +204,9 @@
   </si>
   <si>
     <t>Lab Manager- Dr. Marina Alterman</t>
+  </si>
+  <si>
+    <t>Computing Service</t>
   </si>
 </sst>
 </file>
@@ -867,7 +867,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E20" sqref="E20"/>
+      <selection pane="topRight" activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="6" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="44">
         <v>88000</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="7" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="44">
         <v>40134</v>
@@ -1218,17 +1218,17 @@
     </row>
     <row r="8" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="44">
         <v>90000</v>
       </c>
       <c r="C8" s="30">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="D8" s="65">
         <f t="shared" ref="D8" si="18">C8*12</f>
-        <v>3.5999999999999996</v>
+        <v>6</v>
       </c>
       <c r="E8" s="30">
         <f>2424/7576</f>
@@ -1236,39 +1236,39 @@
       </c>
       <c r="F8" s="46">
         <f t="shared" ref="F8" si="19">ROUND((B8*C8),0)</f>
-        <v>27000</v>
+        <v>45000</v>
       </c>
       <c r="G8" s="46">
         <f t="shared" ref="G8" si="20">ROUND((F8*$E8),0)</f>
-        <v>8639</v>
+        <v>14398</v>
       </c>
       <c r="H8" s="46">
         <f t="shared" ref="H8" si="21">SUM(F8:G8)</f>
-        <v>35639</v>
+        <v>59398</v>
       </c>
       <c r="I8" s="45">
         <f t="shared" ref="I8" si="22">ROUND((B8*C8),0)</f>
-        <v>27000</v>
+        <v>45000</v>
       </c>
       <c r="J8" s="45">
         <f t="shared" ref="J8:J10" si="23">ROUND((I8*$E8),0)</f>
-        <v>8639</v>
+        <v>14398</v>
       </c>
       <c r="K8" s="45">
         <f t="shared" ref="K8:K14" si="24">I8+J8</f>
-        <v>35639</v>
+        <v>59398</v>
       </c>
       <c r="L8" s="46">
         <f t="shared" ref="L8" si="25">ROUND((B8*C8),0)</f>
-        <v>27000</v>
+        <v>45000</v>
       </c>
       <c r="M8" s="46">
         <f t="shared" ref="M8" si="26">ROUND((L8*$E8),0)</f>
-        <v>8639</v>
+        <v>14398</v>
       </c>
       <c r="N8" s="46">
         <f t="shared" ref="N8" si="27">SUM(L8:M8)</f>
-        <v>35639</v>
+        <v>59398</v>
       </c>
       <c r="O8" s="45">
         <v>0</v>
@@ -1282,15 +1282,15 @@
       <c r="T8" s="46"/>
       <c r="U8" s="45">
         <f t="shared" ref="U8:U10" si="28">R8+O8+L8+I8+F8</f>
-        <v>81000</v>
+        <v>135000</v>
       </c>
       <c r="V8" s="45">
         <f t="shared" ref="V8:V10" si="29">S8+P8+M8+J8+G8</f>
-        <v>25917</v>
+        <v>43194</v>
       </c>
       <c r="W8" s="45">
         <f t="shared" ref="W8:W10" si="30">SUM(U8:V8)</f>
-        <v>106917</v>
+        <v>178194</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1535,39 +1535,39 @@
       <c r="E14" s="17"/>
       <c r="F14" s="48">
         <f>SUM(F6:F13)</f>
-        <v>75934</v>
+        <v>93934</v>
       </c>
       <c r="G14" s="48">
         <f>SUM(G6:G13)</f>
-        <v>11332</v>
+        <v>17091</v>
       </c>
       <c r="H14" s="48">
         <f>SUM(H6:H13)</f>
-        <v>87266</v>
+        <v>111025</v>
       </c>
       <c r="I14" s="47">
         <f>SUM(I6:I13)</f>
-        <v>75934</v>
+        <v>93934</v>
       </c>
       <c r="J14" s="47">
         <f>SUM(J6:J13)</f>
-        <v>11332</v>
+        <v>17091</v>
       </c>
       <c r="K14" s="47">
         <f t="shared" si="24"/>
-        <v>87266</v>
+        <v>111025</v>
       </c>
       <c r="L14" s="48">
         <f>SUM(L6:L13)</f>
-        <v>75934</v>
+        <v>93934</v>
       </c>
       <c r="M14" s="48">
         <f>SUM(M6:M13)</f>
-        <v>11332</v>
+        <v>17091</v>
       </c>
       <c r="N14" s="48">
         <f>SUM(N6:N13)</f>
-        <v>87266</v>
+        <v>111025</v>
       </c>
       <c r="O14" s="47">
         <f>SUM(O6:O13)</f>
@@ -1595,15 +1595,15 @@
       </c>
       <c r="U14" s="47">
         <f t="shared" si="41"/>
-        <v>227802</v>
+        <v>281802</v>
       </c>
       <c r="V14" s="47">
         <f t="shared" si="41"/>
-        <v>33996</v>
+        <v>51273</v>
       </c>
       <c r="W14" s="47">
         <f t="shared" si="41"/>
-        <v>261798</v>
+        <v>333075</v>
       </c>
       <c r="X14" s="27"/>
     </row>
@@ -1720,7 +1720,9 @@
       <c r="E19" s="15"/>
       <c r="F19" s="52"/>
       <c r="G19" s="52"/>
-      <c r="H19" s="48"/>
+      <c r="H19" s="48">
+        <v>70000</v>
+      </c>
       <c r="I19" s="51"/>
       <c r="J19" s="51"/>
       <c r="K19" s="47"/>
@@ -1780,17 +1782,17 @@
       <c r="F21" s="50"/>
       <c r="G21" s="50"/>
       <c r="H21" s="48">
-        <v>70000</v>
+        <v>60000</v>
       </c>
       <c r="I21" s="51"/>
       <c r="J21" s="51"/>
       <c r="K21" s="47">
-        <v>70000</v>
+        <v>30000</v>
       </c>
       <c r="L21" s="50"/>
       <c r="M21" s="50"/>
       <c r="N21" s="47">
-        <v>70000</v>
+        <v>30000</v>
       </c>
       <c r="O21" s="50"/>
       <c r="P21" s="50"/>
@@ -1808,7 +1810,7 @@
       <c r="V21" s="50"/>
       <c r="W21" s="47">
         <f t="shared" si="42"/>
-        <v>210000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="22" spans="1:23" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.3">
@@ -1910,7 +1912,7 @@
     </row>
     <row r="25" spans="1:23" s="18" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -1919,17 +1921,17 @@
       <c r="F25" s="51"/>
       <c r="G25" s="51"/>
       <c r="H25" s="48">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="I25" s="51"/>
       <c r="J25" s="51"/>
       <c r="K25" s="47">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="L25" s="51"/>
       <c r="M25" s="51"/>
       <c r="N25" s="48">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="O25" s="51"/>
       <c r="P25" s="51"/>
@@ -1941,7 +1943,7 @@
       <c r="V25" s="51"/>
       <c r="W25" s="47">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="26" spans="1:23" s="18" customFormat="1" ht="13" x14ac:dyDescent="0.3">
@@ -2487,19 +2489,19 @@
       <c r="G41" s="49"/>
       <c r="H41" s="49">
         <f>SUM(H14:H40)</f>
-        <v>202266</v>
+        <v>292025</v>
       </c>
       <c r="I41" s="49"/>
       <c r="J41" s="49"/>
       <c r="K41" s="49">
         <f>SUM(K14:K40)</f>
-        <v>202266</v>
+        <v>192025</v>
       </c>
       <c r="L41" s="49"/>
       <c r="M41" s="49"/>
       <c r="N41" s="49">
         <f>SUM(N14:N40)</f>
-        <v>202266</v>
+        <v>192025</v>
       </c>
       <c r="O41" s="49"/>
       <c r="P41" s="49"/>
@@ -2517,11 +2519,11 @@
       <c r="V41" s="49"/>
       <c r="W41" s="49">
         <f>SUM(H41:T41)</f>
-        <v>606798</v>
+        <v>676075</v>
       </c>
       <c r="X41" s="62">
         <f>SUM(W14:W40)</f>
-        <v>606798</v>
+        <v>606075</v>
       </c>
     </row>
     <row r="42" spans="1:24" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.3">
@@ -2536,19 +2538,19 @@
       <c r="G42" s="48"/>
       <c r="H42" s="48">
         <f>H41-H19</f>
-        <v>202266</v>
+        <v>222025</v>
       </c>
       <c r="I42" s="47"/>
       <c r="J42" s="47"/>
       <c r="K42" s="47">
         <f>K41-K19</f>
-        <v>202266</v>
+        <v>192025</v>
       </c>
       <c r="L42" s="48"/>
       <c r="M42" s="48"/>
       <c r="N42" s="48">
         <f>N41-N19</f>
-        <v>202266</v>
+        <v>192025</v>
       </c>
       <c r="O42" s="47"/>
       <c r="P42" s="47"/>
@@ -2566,7 +2568,7 @@
       <c r="V42" s="47"/>
       <c r="W42" s="47">
         <f>SUM(H42:T42)</f>
-        <v>606798</v>
+        <v>606075</v>
       </c>
     </row>
     <row r="43" spans="1:24" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.3">
@@ -2582,19 +2584,19 @@
       <c r="G43" s="48"/>
       <c r="H43" s="48">
         <f>ROUND((H42*$B$43),0)</f>
-        <v>16181</v>
+        <v>17762</v>
       </c>
       <c r="I43" s="47"/>
       <c r="J43" s="47"/>
       <c r="K43" s="47">
         <f>ROUND((K42*$B$43),0)</f>
-        <v>16181</v>
+        <v>15362</v>
       </c>
       <c r="L43" s="48"/>
       <c r="M43" s="48"/>
       <c r="N43" s="47">
         <f>ROUND((N42*$B$43),0)</f>
-        <v>16181</v>
+        <v>15362</v>
       </c>
       <c r="O43" s="47"/>
       <c r="P43" s="47"/>
@@ -2612,7 +2614,7 @@
       <c r="V43" s="47"/>
       <c r="W43" s="47">
         <f>SUM(H43:T43)</f>
-        <v>48543</v>
+        <v>48486</v>
       </c>
     </row>
     <row r="44" spans="1:24" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.3">
@@ -2627,19 +2629,19 @@
       <c r="G44" s="49"/>
       <c r="H44" s="49">
         <f>H41+H43</f>
-        <v>218447</v>
+        <v>309787</v>
       </c>
       <c r="I44" s="49"/>
       <c r="J44" s="49"/>
       <c r="K44" s="49">
         <f>K41+K43</f>
-        <v>218447</v>
+        <v>207387</v>
       </c>
       <c r="L44" s="49"/>
       <c r="M44" s="49"/>
       <c r="N44" s="49">
         <f>N41+N43</f>
-        <v>218447</v>
+        <v>207387</v>
       </c>
       <c r="O44" s="49"/>
       <c r="P44" s="49"/>
@@ -2657,7 +2659,7 @@
       <c r="V44" s="49"/>
       <c r="W44" s="49">
         <f>SUM(W41+W43)</f>
-        <v>655341</v>
+        <v>724561</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="13" x14ac:dyDescent="0.3">
@@ -2676,15 +2678,15 @@
       </c>
       <c r="H46" s="46">
         <f>H44</f>
-        <v>218447</v>
+        <v>309787</v>
       </c>
       <c r="K46" s="45">
         <f>K44</f>
-        <v>218447</v>
+        <v>207387</v>
       </c>
       <c r="N46" s="46">
         <f>N44</f>
-        <v>218447</v>
+        <v>207387</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
@@ -2694,15 +2696,15 @@
       </c>
       <c r="H47" s="46">
         <f>H41</f>
-        <v>202266</v>
+        <v>292025</v>
       </c>
       <c r="K47" s="45">
         <f>K41</f>
-        <v>202266</v>
+        <v>192025</v>
       </c>
       <c r="N47" s="46">
         <f>N41</f>
-        <v>202266</v>
+        <v>192025</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
@@ -2713,7 +2715,7 @@
       </c>
       <c r="H48" s="54">
         <f>H43</f>
-        <v>16181</v>
+        <v>17762</v>
       </c>
       <c r="I48" s="60">
         <f>$B$43</f>
@@ -2721,11 +2723,11 @@
       </c>
       <c r="K48" s="45">
         <f>K43</f>
-        <v>16181</v>
+        <v>15362</v>
       </c>
       <c r="N48" s="46">
         <f>N43</f>
-        <v>16181</v>
+        <v>15362</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="13" x14ac:dyDescent="0.3">
